--- a/dev.bitstationary/dev.bitstationary.xlsx
+++ b/dev.bitstationary/dev.bitstationary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="34">
   <si>
     <t>-</t>
   </si>
@@ -90,9 +90,15 @@
     <t>whichIs29</t>
   </si>
   <si>
+    <t>Staircase</t>
+  </si>
+  <si>
     <t>wakeUp28</t>
   </si>
   <si>
+    <t>Quarantine</t>
+  </si>
+  <si>
     <t>-c</t>
   </si>
   <si>
@@ -102,7 +108,13 @@
     <t>testPHP28</t>
   </si>
   <si>
+    <t>Scripting</t>
+  </si>
+  <si>
     <t>quickAndRough52</t>
+  </si>
+  <si>
+    <t>Scrapbook</t>
   </si>
 </sst>
 </file>
@@ -253,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -349,6 +361,9 @@
     </xf>
     <xf borderId="7" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,6 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1247,6 +1263,9 @@
     <hyperlink r:id="rId3" ref="C7"/>
     <hyperlink r:id="rId4" ref="C8"/>
   </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
@@ -1255,6 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1327,7 +1347,9 @@
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
       </c>
@@ -1873,13 +1895,15 @@
         <v>0</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G31" s="25" t="s">
         <v>4</v>
       </c>
@@ -1904,6 +1928,9 @@
     <hyperlink r:id="rId1" ref="C6"/>
     <hyperlink r:id="rId2" ref="C31"/>
   </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -1912,6 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1940,14 +1968,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -1978,13 +2006,15 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
       </c>
@@ -2530,13 +2560,15 @@
         <v>0</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="G31" s="25" t="s">
         <v>4</v>
       </c>
@@ -2561,6 +2593,9 @@
     <hyperlink r:id="rId1" ref="C6"/>
     <hyperlink r:id="rId2" ref="C31"/>
   </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/dev.bitstationary/dev.bitstationary.xlsx
+++ b/dev.bitstationary/dev.bitstationary.xlsx
@@ -2638,7 +2638,7 @@
     <hyperlink r:id="rId2" ref="C29"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/dev.bitstationary/dev.bitstationary.xlsx
+++ b/dev.bitstationary/dev.bitstationary.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="-a" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="-b" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="-c" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="-z" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="39">
   <si>
     <t>-</t>
   </si>
@@ -112,13 +113,31 @@
   </si>
   <si>
     <t>Scrapbook</t>
+  </si>
+  <si>
+    <t>-z</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>virtualisation54</t>
+  </si>
+  <si>
+    <t>Establish</t>
+  </si>
+  <si>
+    <t>scooping34</t>
+  </si>
+  <si>
+    <t>Voucher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -172,6 +191,12 @@
     <font>
       <sz val="9.0"/>
       <color theme="1"/>
+      <name val="Overpass Mono"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Overpass Mono"/>
     </font>
     <font>
@@ -348,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -359,7 +384,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -442,14 +467,29 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="11" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,6 +508,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1368,7 +1412,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1406,7 +1450,7 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -1983,13 +2027,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C4"/>
-    <hyperlink r:id="rId2" ref="C29"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C4"/>
+    <hyperlink r:id="rId3" ref="C29"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2019,7 +2064,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2057,7 +2102,7 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -2634,12 +2679,663 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C4"/>
-    <hyperlink r:id="rId2" ref="C29"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C4"/>
+    <hyperlink r:id="rId3" ref="C29"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.75"/>
+    <col customWidth="1" min="2" max="2" width="3.38"/>
+    <col customWidth="1" min="3" max="3" width="15.75"/>
+    <col customWidth="1" min="4" max="4" width="3.38"/>
+    <col customWidth="1" min="5" max="5" width="87.63"/>
+    <col customWidth="1" min="7" max="7" width="3.38"/>
+    <col customWidth="1" min="9" max="9" width="3.38"/>
+    <col customWidth="1" min="10" max="10" width="2.75"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1"/>
+      <c r="B19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1"/>
+      <c r="B22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>23.0</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>24.0</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29">
+        <v>26.0</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait" pageOrder="overThenDown"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dev.bitstationary/dev.bitstationary.xlsx
+++ b/dev.bitstationary/dev.bitstationary.xlsx
@@ -103,7 +103,7 @@
     <t>Hypotenuse</t>
   </si>
   <si>
-    <t>testPHP28</t>
+    <t>workSoEver43</t>
   </si>
   <si>
     <t>Scripting</t>
@@ -2684,7 +2684,7 @@
     <hyperlink r:id="rId3" ref="C29"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/dev.bitstationary/dev.bitstationary.xlsx
+++ b/dev.bitstationary/dev.bitstationary.xlsx
@@ -189,14 +189,14 @@
       <name val="Overpass Mono"/>
     </font>
     <font>
+      <u/>
       <sz val="9.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Overpass Mono"/>
     </font>
     <font>
-      <u/>
       <sz val="9.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Overpass Mono"/>
     </font>
     <font>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -435,9 +435,12 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -446,7 +449,7 @@
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -467,9 +470,6 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="8" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -479,14 +479,8 @@
     <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -877,7 +871,7 @@
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -903,7 +897,7 @@
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -929,7 +923,7 @@
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -955,7 +949,7 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -981,12 +975,12 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -1003,12 +997,12 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -1025,12 +1019,12 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -1047,12 +1041,12 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -1069,12 +1063,12 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -1091,12 +1085,12 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1113,12 +1107,12 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -1135,12 +1129,12 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1157,12 +1151,12 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -1179,12 +1173,12 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -1201,12 +1195,12 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -1223,12 +1217,12 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1245,12 +1239,12 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -1267,12 +1261,12 @@
       <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -1289,12 +1283,12 @@
       <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -1311,12 +1305,12 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="17" t="s">
         <v>0</v>
       </c>
@@ -1333,12 +1327,12 @@
       <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="17" t="s">
         <v>0</v>
       </c>
@@ -1352,22 +1346,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="B29" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30">
         <v>26.0</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="31" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -1378,11 +1372,12 @@
     <hyperlink r:id="rId2" ref="C4"/>
     <hyperlink r:id="rId3" ref="C5"/>
     <hyperlink r:id="rId4" ref="C6"/>
+    <hyperlink r:id="rId5" ref="C7"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1450,7 +1445,7 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -1520,7 +1515,7 @@
       <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1537,7 @@
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1559,7 @@
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1581,7 @@
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1603,7 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
@@ -1630,12 +1625,12 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -1652,12 +1647,12 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -1674,12 +1669,12 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -1696,12 +1691,12 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -1718,12 +1713,12 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -1740,12 +1735,12 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1762,12 +1757,12 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -1784,12 +1779,12 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1806,12 +1801,12 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -1828,12 +1823,12 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -1850,12 +1845,12 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -1872,12 +1867,12 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1894,12 +1889,12 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -1916,12 +1911,12 @@
       <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -1938,12 +1933,12 @@
       <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -1960,12 +1955,12 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="17" t="s">
         <v>0</v>
       </c>
@@ -1982,12 +1977,12 @@
       <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="17" t="s">
         <v>0</v>
       </c>
@@ -2001,26 +1996,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27" t="s">
+      <c r="D29" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="G29" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30">
         <v>26.0</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="31" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -2102,7 +2097,7 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -2172,7 +2167,7 @@
       <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
@@ -2194,7 +2189,7 @@
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
@@ -2216,7 +2211,7 @@
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
@@ -2238,7 +2233,7 @@
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
@@ -2260,7 +2255,7 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
@@ -2282,12 +2277,12 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -2304,12 +2299,12 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -2326,12 +2321,12 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -2348,12 +2343,12 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -2370,12 +2365,12 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -2392,12 +2387,12 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -2414,12 +2409,12 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -2436,12 +2431,12 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -2458,12 +2453,12 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -2480,12 +2475,12 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -2502,12 +2497,12 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -2524,12 +2519,12 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -2546,12 +2541,12 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -2568,12 +2563,12 @@
       <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -2590,12 +2585,12 @@
       <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -2612,12 +2607,12 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="17" t="s">
         <v>0</v>
       </c>
@@ -2634,12 +2629,12 @@
       <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="17" t="s">
         <v>0</v>
       </c>
@@ -2653,26 +2648,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27" t="s">
+      <c r="D29" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="G29" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30">
         <v>26.0</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="31" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -2754,14 +2749,14 @@
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -2824,7 +2819,7 @@
       <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2841,7 @@
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
@@ -2868,7 +2863,7 @@
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
@@ -2890,7 +2885,7 @@
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
@@ -2912,7 +2907,7 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
@@ -2934,12 +2929,12 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -2956,12 +2951,12 @@
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -2978,12 +2973,12 @@
       <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -3000,12 +2995,12 @@
       <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -3022,12 +3017,12 @@
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -3044,12 +3039,12 @@
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -3066,12 +3061,12 @@
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -3088,12 +3083,12 @@
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3110,12 +3105,12 @@
       <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -3132,12 +3127,12 @@
       <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -3154,12 +3149,12 @@
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -3176,12 +3171,12 @@
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -3198,12 +3193,12 @@
       <c r="B24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -3220,12 +3215,12 @@
       <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -3242,12 +3237,12 @@
       <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -3264,12 +3259,12 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="17" t="s">
         <v>0</v>
       </c>
@@ -3286,12 +3281,12 @@
       <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="17" t="s">
         <v>0</v>
       </c>
@@ -3305,26 +3300,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="37" t="s">
+      <c r="B29" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="38" t="s">
+      <c r="D29" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="G29" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30">
         <v>26.0</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="31" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -3332,10 +3327,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C4"/>
+    <hyperlink r:id="rId3" ref="C29"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>